--- a/NaMetalBatteries_GP/Data/Recs/Recs - epsilon 0 weight 1.xlsx
+++ b/NaMetalBatteries_GP/Data/Recs/Recs - epsilon 0 weight 1.xlsx
@@ -462,16 +462,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0.1</v>
@@ -480,25 +480,25 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.94962393429941</v>
       </c>
       <c r="M2">
-        <v>54.97271168179589</v>
+        <v>0.1524828794128603</v>
       </c>
       <c r="N2">
-        <v>0.4886573266974341</v>
+        <v>0.06675998886883501</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -506,19 +506,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -527,22 +527,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99.94785081139423</v>
       </c>
       <c r="M3">
-        <v>54.97272768541185</v>
+        <v>0.1089635892317524</v>
       </c>
       <c r="N3">
-        <v>0.488657251341602</v>
+        <v>0.04076779423747495</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -553,16 +553,16 @@
         <v>0.3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -571,22 +571,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>99.93126004524483</v>
       </c>
       <c r="M4">
-        <v>54.97277326208754</v>
+        <v>0.2168939810338737</v>
       </c>
       <c r="N4">
-        <v>0.4886570367241514</v>
+        <v>0.03858021639914017</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -597,40 +597,40 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
         <v>0.3</v>
       </c>
-      <c r="D5">
-        <v>0.3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.1</v>
-      </c>
-      <c r="I5">
-        <v>0.3</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
-        <v>100</v>
+        <v>99.03409218152484</v>
       </c>
       <c r="M5">
-        <v>54.97405137244337</v>
+        <v>0.8467581432294196</v>
       </c>
       <c r="N5">
-        <v>0.4886510111436159</v>
+        <v>0.02556925982239631</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -644,37 +644,37 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>98.7346980764584</v>
       </c>
       <c r="M6">
-        <v>54.9790439104502</v>
+        <v>0.9047755780967861</v>
       </c>
       <c r="N6">
-        <v>0.4886273432942926</v>
+        <v>0.02533283177074394</v>
       </c>
     </row>
   </sheetData>
